--- a/sem1/CN_CО-ИП-21-2.xlsx
+++ b/sem1/CN_CО-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07495DF4-F5D7-3242-967C-F02F1B95AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B0740-B611-0849-A38C-AFA017ECA628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="44">
   <si>
     <t>№</t>
   </si>
@@ -1859,9 +1859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="175" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1903,7 +1903,9 @@
       <c r="I1" s="28">
         <v>45194</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="28">
+        <v>45198</v>
+      </c>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
       <c r="M1" s="3"/>
@@ -1958,7 +1960,9 @@
       <c r="I2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
       <c r="M2" s="7"/>
@@ -2013,7 +2017,9 @@
       <c r="I3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
       <c r="M3" s="7"/>
@@ -2068,7 +2074,9 @@
       <c r="I4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
       <c r="M4" s="7"/>
@@ -2123,7 +2131,9 @@
       <c r="I5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="7"/>
@@ -2178,7 +2188,9 @@
       <c r="I6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="7"/>
@@ -2233,7 +2245,9 @@
       <c r="I7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="7"/>
@@ -2288,7 +2302,9 @@
       <c r="I8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="7"/>
@@ -2343,7 +2359,9 @@
       <c r="I9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
       <c r="M9" s="7"/>
@@ -2398,7 +2416,9 @@
       <c r="I10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
       <c r="M10" s="7"/>
@@ -2453,7 +2473,9 @@
       <c r="I11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="7"/>
@@ -2508,7 +2530,9 @@
       <c r="I12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="7"/>
@@ -2563,7 +2587,9 @@
       <c r="I13" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="J13" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
       <c r="M13" s="7"/>
@@ -2618,7 +2644,9 @@
       <c r="I14" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="56" t="s">
+        <v>4</v>
+      </c>
       <c r="K14" s="57"/>
       <c r="L14" s="57"/>
       <c r="M14" s="58"/>
@@ -2673,7 +2701,9 @@
       <c r="I15" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="75"/>
+      <c r="J15" s="74" t="s">
+        <v>3</v>
+      </c>
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
       <c r="M15" s="76"/>
@@ -3495,9 +3525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H21" sqref="H21"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3539,7 +3569,9 @@
       <c r="I1" s="28">
         <v>45191</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="28">
+        <v>45198</v>
+      </c>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
@@ -3593,7 +3625,9 @@
       <c r="I2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
@@ -3647,7 +3681,9 @@
       <c r="I3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -3701,7 +3737,9 @@
       <c r="I4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
@@ -3755,7 +3793,9 @@
       <c r="I5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
@@ -3809,7 +3849,9 @@
       <c r="I6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -3863,7 +3905,9 @@
       <c r="I7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
@@ -3917,7 +3961,9 @@
       <c r="I8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
@@ -3971,7 +4017,9 @@
       <c r="I9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="38" t="s">
+        <v>4</v>
+      </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -4025,7 +4073,9 @@
       <c r="I10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -4079,7 +4129,9 @@
       <c r="I11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="38" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
@@ -4133,7 +4185,9 @@
       <c r="I12" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
@@ -4187,7 +4241,9 @@
       <c r="I13" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="75"/>
+      <c r="J13" s="74" t="s">
+        <v>4</v>
+      </c>
       <c r="K13" s="75"/>
       <c r="L13" s="75"/>
       <c r="M13" s="75"/>
@@ -4351,8 +4407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="217" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4490,13 +4546,15 @@
       <c r="C4" s="51">
         <v>8</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="48">
+        <v>12</v>
+      </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
       <c r="G4" s="49"/>
       <c r="H4" s="54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -4509,7 +4567,7 @@
       </c>
       <c r="O4" s="54">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/sem1/CN_CО-ИП-21-2.xlsx
+++ b/sem1/CN_CО-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF477673-3DB2-DE49-A7FD-B994F9304F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B9A83-2203-1549-A10C-8745501F8A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -477,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,9 +550,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,9 +581,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,9 +618,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1882,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="171" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -1938,7 +1929,7 @@
       <c r="M1" s="27">
         <v>45208</v>
       </c>
-      <c r="N1" s="82">
+      <c r="N1" s="79">
         <v>45212</v>
       </c>
       <c r="O1" s="27">
@@ -2008,7 +1999,7 @@
       <c r="N2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="80" t="s">
         <v>4</v>
       </c>
       <c r="P2" s="15"/>
@@ -2075,7 +2066,7 @@
       <c r="N3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="80" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="15"/>
@@ -2142,7 +2133,7 @@
       <c r="N4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="80" t="s">
         <v>3</v>
       </c>
       <c r="P4" s="15"/>
@@ -2209,7 +2200,7 @@
       <c r="N5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="80" t="s">
         <v>3</v>
       </c>
       <c r="P5" s="15"/>
@@ -2276,7 +2267,7 @@
       <c r="N6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="80" t="s">
         <v>3</v>
       </c>
       <c r="P6" s="15"/>
@@ -2343,7 +2334,7 @@
       <c r="N7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="83" t="s">
+      <c r="O7" s="80" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="15"/>
@@ -2410,7 +2401,7 @@
       <c r="N8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="83" t="s">
+      <c r="O8" s="80" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="15"/>
@@ -2477,7 +2468,7 @@
       <c r="N9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="83" t="s">
+      <c r="O9" s="80" t="s">
         <v>4</v>
       </c>
       <c r="P9" s="15"/>
@@ -2544,7 +2535,7 @@
       <c r="N10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="83" t="s">
+      <c r="O10" s="80" t="s">
         <v>4</v>
       </c>
       <c r="P10" s="15"/>
@@ -2611,7 +2602,7 @@
       <c r="N11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="80" t="s">
         <v>3</v>
       </c>
       <c r="P11" s="15"/>
@@ -2678,7 +2669,7 @@
       <c r="N12" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="80" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="15"/>
@@ -2745,7 +2736,7 @@
       <c r="N13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="83" t="s">
+      <c r="O13" s="80" t="s">
         <v>4</v>
       </c>
       <c r="P13" s="15"/>
@@ -2770,131 +2761,131 @@
       <c r="AI13" s="18"/>
     </row>
     <row r="14" spans="1:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68">
+      <c r="A14" s="66">
         <v>13</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
+      <c r="C14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="61"/>
     </row>
     <row r="15" spans="1:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69">
+      <c r="A15" s="67">
         <v>14</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
+      <c r="C15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
       <c r="X15" s="26"/>
       <c r="Y15" s="26"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="73"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
       <c r="AC15" s="34"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="34"/>
@@ -2904,160 +2895,160 @@
       <c r="AI15" s="18"/>
     </row>
     <row r="16" spans="1:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="39"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
     </row>
     <row r="17" spans="2:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="38"/>
     </row>
     <row r="18" spans="2:51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:R16 S16">
@@ -3083,9 +3074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3139,7 +3130,9 @@
       <c r="M1" s="27">
         <v>45212</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="4">
+        <v>45224</v>
+      </c>
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
       <c r="Q1" s="3"/>
@@ -3201,7 +3194,9 @@
       <c r="M2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="38"/>
+      <c r="N2" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="7"/>
@@ -3263,7 +3258,9 @@
       <c r="M3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="38"/>
+      <c r="N3" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="7"/>
@@ -3325,7 +3322,9 @@
       <c r="M4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="38"/>
+      <c r="N4" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="7"/>
@@ -3387,7 +3386,9 @@
       <c r="M5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="38"/>
+      <c r="N5" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="7"/>
@@ -3449,7 +3450,9 @@
       <c r="M6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="7"/>
@@ -3511,7 +3514,9 @@
       <c r="M7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="38"/>
+      <c r="N7" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="7"/>
@@ -3573,7 +3578,9 @@
       <c r="M8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="38"/>
+      <c r="N8" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="7"/>
@@ -3635,7 +3642,9 @@
       <c r="M9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="38"/>
+      <c r="N9" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="7"/>
@@ -3697,7 +3706,9 @@
       <c r="M10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="38"/>
+      <c r="N10" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="7"/>
@@ -3759,7 +3770,9 @@
       <c r="M11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="38"/>
+      <c r="N11" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="7"/>
@@ -3782,110 +3795,114 @@
       <c r="AH11" s="18"/>
     </row>
     <row r="12" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68">
+      <c r="A12" s="66">
         <v>11</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="55" t="s">
+      <c r="C12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="63"/>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="63"/>
+      <c r="L12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="61"/>
     </row>
     <row r="13" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69">
+      <c r="A13" s="67">
         <v>12</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="72"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
+      <c r="F13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
       <c r="S13" s="24"/>
@@ -3906,123 +3923,123 @@
       <c r="AH13" s="18"/>
     </row>
     <row r="14" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
     </row>
     <row r="15" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="80" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
     </row>
     <row r="16" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
     </row>
     <row r="17" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="78" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4051,112 +4068,112 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="159" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="9" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.1640625" style="39" customWidth="1"/>
-    <col min="19" max="20" width="8.83203125" style="39" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="39"/>
+    <col min="1" max="1" width="2.83203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="9" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1640625" style="38" customWidth="1"/>
+    <col min="19" max="20" width="8.83203125" style="38" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:19" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="52">
         <v>8</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52">
         <f>SUM(C2:G2)</f>
         <v>8</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52">
         <f>SUM(I2:M2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="53">
+      <c r="O2" s="52">
         <f>SUM(N2,H2)</f>
         <v>8</v>
       </c>
-      <c r="P2" s="52"/>
+      <c r="P2" s="51"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="9"/>
@@ -4165,34 +4182,34 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <v>8</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="53">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="52">
         <f t="shared" ref="H3:H15" si="0">SUM(C3:G3)</f>
         <v>8</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="53">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="52">
         <f t="shared" ref="N3:N15" si="1">SUM(I3:M3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="52">
         <f t="shared" ref="O3:O15" si="2">SUM(N3,H3)</f>
         <v>8</v>
       </c>
-      <c r="P3" s="52"/>
+      <c r="P3" s="51"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="9"/>
@@ -4201,38 +4218,38 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>8</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>12</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <v>10</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="53">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="53">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="53">
+      <c r="O4" s="52">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="P4" s="52"/>
+      <c r="P4" s="51"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="9"/>
@@ -4241,32 +4258,32 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="53">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="53">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P5" s="52"/>
+      <c r="P5" s="51"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="9"/>
@@ -4275,32 +4292,32 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="53">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="53">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="52"/>
+      <c r="P6" s="51"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="9"/>
@@ -4309,38 +4326,38 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="49">
         <v>8</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>12</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>10</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="53">
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="53">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="52">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="P7" s="52"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="9"/>
@@ -4349,32 +4366,32 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="53">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="53">
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="52"/>
+      <c r="P8" s="51"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="9"/>
@@ -4383,34 +4400,34 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>8</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="53">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="53">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="52">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P9" s="52"/>
+      <c r="P9" s="51"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="9"/>
@@ -4419,36 +4436,36 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <v>8</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>12</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="53">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="53">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="52">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="P10" s="52"/>
+      <c r="P10" s="51"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="9"/>
@@ -4457,38 +4474,38 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <v>8</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <v>12</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <v>10</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="53">
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="53">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="52">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="P11" s="52"/>
+      <c r="P11" s="51"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
@@ -4497,34 +4514,34 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="49">
         <v>8</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="53">
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="53">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="52">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P12" s="52"/>
+      <c r="P12" s="51"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="9"/>
@@ -4533,38 +4550,38 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <v>8</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>12</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <v>10</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="53">
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="53">
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="52">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="P13" s="52"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="9"/>
@@ -4573,38 +4590,38 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <v>8</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <v>12</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="47">
         <v>10</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="53">
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="53">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="52">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="P14" s="52"/>
+      <c r="P14" s="51"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="9"/>
@@ -4613,36 +4630,36 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="49">
         <v>8</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>12</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="53">
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="53">
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="53">
+      <c r="O15" s="52">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="P15" s="52"/>
+      <c r="P15" s="51"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="9"/>
@@ -4650,35 +4667,35 @@
     <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="52"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="51"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="3:12" s="39" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
+    <row r="17" spans="3:12" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
@@ -4694,7 +4711,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4716,49 +4733,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="52" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4766,28 +4783,28 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52">
         <f>SUM(C2:G2)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52">
         <f>SUM(I2:M2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="53">
+      <c r="O2" s="52">
         <f>SUM(N2,H2)</f>
         <v>0</v>
       </c>
@@ -4796,28 +4813,28 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="53">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="52">
         <f t="shared" ref="H3:H14" si="0">SUM(C3:G3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="36"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="53">
+      <c r="N3" s="52">
         <f t="shared" ref="N3:N14" si="1">SUM(I3:M3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="52">
         <f t="shared" ref="O3:O14" si="2">SUM(N3,H3)</f>
         <v>0</v>
       </c>
@@ -4826,32 +4843,32 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>8</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>12</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="53">
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="36"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="53">
+      <c r="N4" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="53">
+      <c r="O4" s="52">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -4860,56 +4877,56 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>8</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="53">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="46"/>
       <c r="L5" s="36"/>
       <c r="M5" s="18"/>
-      <c r="N5" s="53">
+      <c r="N5" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="52">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="53">
+      <c r="B6" s="45"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="46"/>
       <c r="L6" s="26"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="53">
+      <c r="N6" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4918,28 +4935,28 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="53">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="46"/>
       <c r="L7" s="36"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="53">
+      <c r="N7" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4948,28 +4965,28 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="53">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="36"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="53">
+      <c r="N8" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4978,30 +4995,30 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <v>8</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="53">
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="36"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="53">
+      <c r="N9" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="52">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -5010,30 +5027,30 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <v>8</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="53">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="36"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="53">
+      <c r="N10" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="52">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -5042,60 +5059,62 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <v>8</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="53">
+      <c r="D11" s="46"/>
+      <c r="E11" s="47">
+        <v>8</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="52">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="46"/>
       <c r="L11" s="36"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="53">
+      <c r="N11" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="52">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="53">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="36"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="53">
+      <c r="N12" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5104,32 +5123,32 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="49">
         <v>8</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>12</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="53">
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="36"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="53">
+      <c r="N13" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="52">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -5138,28 +5157,28 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="53">
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="36"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="53">
+      <c r="N14" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="53">
+      <c r="O14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/sem1/CN_CО-ИП-21-2.xlsx
+++ b/sem1/CN_CО-ИП-21-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B9A83-2203-1549-A10C-8745501F8A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB71887-481B-564A-9641-FAFD108019AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="47">
   <si>
     <t>№</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>ё</t>
+  </si>
+  <si>
+    <t>Лаб. 4 (14)</t>
   </si>
 </sst>
 </file>
@@ -1873,9 +1876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="171" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" zoomScale="220" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1883,8 +1886,8 @@
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
     <col min="3" max="14" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="9.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="9.1640625" style="1" customWidth="1"/>
     <col min="24" max="29" width="8.83203125" style="1" customWidth="1"/>
     <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1935,8 +1938,12 @@
       <c r="O1" s="27">
         <v>45215</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="P1" s="27">
+        <v>45226</v>
+      </c>
+      <c r="Q1" s="27">
+        <v>45229</v>
+      </c>
       <c r="R1" s="27"/>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
@@ -2002,8 +2009,12 @@
       <c r="O2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="P2" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
@@ -2069,8 +2080,12 @@
       <c r="O3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="P3" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
@@ -2136,8 +2151,12 @@
       <c r="O4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="P4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
@@ -2203,8 +2222,12 @@
       <c r="O5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -2270,8 +2293,12 @@
       <c r="O6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="P6" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
@@ -2337,8 +2364,12 @@
       <c r="O7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="P7" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
@@ -2404,8 +2435,12 @@
       <c r="O8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="P8" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -2471,8 +2506,12 @@
       <c r="O9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="P9" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
@@ -2538,8 +2577,12 @@
       <c r="O10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+      <c r="P10" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -2605,8 +2648,12 @@
       <c r="O11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="P11" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
@@ -2672,8 +2719,12 @@
       <c r="O12" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="P12" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
@@ -2739,8 +2790,12 @@
       <c r="O13" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="P13" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
@@ -2806,8 +2861,12 @@
       <c r="O14" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
+      <c r="P14" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="81" t="s">
+        <v>3</v>
+      </c>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
       <c r="T14" s="55"/>
@@ -2873,8 +2932,12 @@
       <c r="O15" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
+      <c r="P15" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="49" t="s">
+        <v>3</v>
+      </c>
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
@@ -3076,7 +3139,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O17" sqref="O17"/>
+      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3084,7 +3147,9 @@
     <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.1640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="16" customWidth="1"/>
+    <col min="11" max="15" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="17" max="24" width="9.1640625" style="1" customWidth="1"/>
     <col min="25" max="26" width="8.83203125" style="1" customWidth="1"/>
     <col min="27" max="16384" width="8.83203125" style="1"/>
@@ -3133,8 +3198,12 @@
       <c r="N1" s="4">
         <v>45224</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="O1" s="27">
+        <v>45226</v>
+      </c>
+      <c r="P1" s="27">
+        <v>45231</v>
+      </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -3197,8 +3266,12 @@
       <c r="N2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="O2" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
@@ -3261,8 +3334,12 @@
       <c r="N3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -3325,8 +3402,12 @@
       <c r="N4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="O4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -3389,8 +3470,12 @@
       <c r="N5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="O5" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -3453,8 +3538,12 @@
       <c r="N6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="O6" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -3517,8 +3606,12 @@
       <c r="N7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="O7" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -3581,8 +3674,12 @@
       <c r="N8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="O8" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -3645,8 +3742,12 @@
       <c r="N9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="O9" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -3709,8 +3810,12 @@
       <c r="N10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="O10" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -3773,8 +3878,12 @@
       <c r="N11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="O11" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -3837,8 +3946,12 @@
       <c r="N12" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
+      <c r="O12" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="81" t="s">
+        <v>3</v>
+      </c>
       <c r="Q12" s="71"/>
       <c r="R12" s="71"/>
       <c r="S12" s="71"/>
@@ -3901,8 +4014,12 @@
       <c r="N13" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
+      <c r="O13" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
       <c r="S13" s="24"/>
@@ -4068,7 +4185,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="159" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4078,14 +4195,13 @@
     <col min="3" max="3" width="9" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5" style="38" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="9.1640625" style="38" customWidth="1"/>
     <col min="19" max="20" width="8.83203125" style="38" customWidth="1"/>
     <col min="21" max="16384" width="8.83203125" style="38"/>
@@ -4108,33 +4224,26 @@
         <v>33</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="52" t="s">
-        <v>39</v>
-      </c>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="52" t="s">
         <v>43</v>
       </c>
       <c r="P1" s="50"/>
@@ -4155,22 +4264,21 @@
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52">
-        <f>SUM(C2:G2)</f>
+      <c r="G2" s="52">
+        <f t="shared" ref="G2:G15" si="0">SUM(C2:F2)</f>
         <v>8</v>
       </c>
+      <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
       <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="M2" s="52">
+        <f>SUM(H2:L2)</f>
+        <v>0</v>
+      </c>
       <c r="N2" s="52">
-        <f>SUM(I2:M2)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="52">
-        <f>SUM(N2,H2)</f>
+        <f>SUM(M2,G2)</f>
         <v>8</v>
       </c>
       <c r="P2" s="51"/>
@@ -4191,22 +4299,21 @@
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="52">
-        <f t="shared" ref="H3:H15" si="0">SUM(C3:G3)</f>
+      <c r="G3" s="52">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="47"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="52">
+        <f t="shared" ref="M3:M15" si="1">SUM(H3:L3)</f>
+        <v>0</v>
+      </c>
       <c r="N3" s="52">
-        <f t="shared" ref="N3:N15" si="1">SUM(I3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="52">
-        <f t="shared" ref="O3:O15" si="2">SUM(N3,H3)</f>
+        <f t="shared" ref="N3:N15" si="2">SUM(M3,G3)</f>
         <v>8</v>
       </c>
       <c r="P3" s="51"/>
@@ -4231,23 +4338,24 @@
         <v>10</v>
       </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="52">
+      <c r="G4" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="H4" s="47">
+        <v>14</v>
+      </c>
       <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="52">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="N4" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="52">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P4" s="51"/>
       <c r="Q4" s="8"/>
@@ -4265,21 +4373,20 @@
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="52">
+      <c r="G5" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="52">
+      <c r="J5" s="46"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="52">
+      <c r="N5" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4299,21 +4406,20 @@
       <c r="D6" s="46"/>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="52">
+      <c r="G6" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="52">
+      <c r="J6" s="46"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="52">
+      <c r="N6" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4339,21 +4445,20 @@
         <v>10</v>
       </c>
       <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="52">
+      <c r="G7" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="H7" s="47"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="52">
+      <c r="J7" s="46"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="52">
+      <c r="N7" s="52">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -4373,21 +4478,20 @@
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="52">
+      <c r="G8" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H8" s="47"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="52">
+      <c r="J8" s="46"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="52">
+      <c r="N8" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4409,21 +4513,20 @@
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
       <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="52">
+      <c r="G9" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="52">
+      <c r="J9" s="46"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="52">
+      <c r="N9" s="52">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -4447,21 +4550,20 @@
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="52">
+      <c r="G10" s="52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="H10" s="47"/>
       <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="52">
+      <c r="J10" s="46"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="52">
+      <c r="N10" s="52">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -4486,22 +4588,21 @@
       <c r="E11" s="46">
         <v>10</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="52">
+      <c r="F11" s="47"/>
+      <c r="G11" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="H11" s="47"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="52">
+      <c r="J11" s="46"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="52">
+      <c r="N11" s="52">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -4523,21 +4624,20 @@
       <c r="D12" s="46"/>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="52">
+      <c r="G12" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="H12" s="47"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="52">
+      <c r="J12" s="46"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="52">
+      <c r="N12" s="52">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -4563,23 +4663,24 @@
         <v>10</v>
       </c>
       <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="52">
+      <c r="G13" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="H13" s="47">
+        <v>14</v>
+      </c>
       <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="47"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="52">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="N13" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="52">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P13" s="51"/>
       <c r="Q13" s="8"/>
@@ -4603,21 +4704,20 @@
         <v>10</v>
       </c>
       <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="52">
+      <c r="G14" s="52">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="H14" s="47"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="52">
+      <c r="J14" s="46"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="52">
+      <c r="N14" s="52">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -4640,22 +4740,21 @@
         <v>12</v>
       </c>
       <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="52">
+      <c r="F15" s="47"/>
+      <c r="G15" s="52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="H15" s="47"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="52">
+      <c r="J15" s="46"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="52">
+      <c r="N15" s="52">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -4671,15 +4770,14 @@
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="47"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="52"/>
       <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -4711,7 +4809,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5097,13 +5195,15 @@
         <v>27</v>
       </c>
       <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="D12" s="46">
+        <v>12</v>
+      </c>
       <c r="E12" s="46"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
       <c r="H12" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
@@ -5116,7 +5216,7 @@
       </c>
       <c r="O12" s="52">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/sem1/CN_CО-ИП-21-2.xlsx
+++ b/sem1/CN_CО-ИП-21-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB71887-481B-564A-9641-FAFD108019AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4511771-CBEB-B548-BA22-1A42A5C655CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="47">
   <si>
     <t>№</t>
   </si>
@@ -1876,9 +1876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="220" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="220" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1886,8 +1886,8 @@
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
     <col min="3" max="14" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="9.1640625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="9.1640625" style="1" customWidth="1"/>
     <col min="24" max="29" width="8.83203125" style="1" customWidth="1"/>
     <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1944,7 +1944,9 @@
       <c r="Q1" s="27">
         <v>45229</v>
       </c>
-      <c r="R1" s="27"/>
+      <c r="R1" s="27">
+        <v>45233</v>
+      </c>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
       <c r="U1" s="27"/>
@@ -2015,7 +2017,9 @@
       <c r="Q2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="15"/>
+      <c r="R2" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
@@ -2086,7 +2090,9 @@
       <c r="Q3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="15"/>
+      <c r="R3" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
@@ -2157,7 +2163,9 @@
       <c r="Q4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="15"/>
+      <c r="R4" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
@@ -2228,7 +2236,9 @@
       <c r="Q5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="15"/>
+      <c r="R5" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
@@ -2299,7 +2309,9 @@
       <c r="Q6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="15"/>
+      <c r="R6" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
@@ -2370,7 +2382,9 @@
       <c r="Q7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="15"/>
+      <c r="R7" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
@@ -2441,7 +2455,9 @@
       <c r="Q8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="15"/>
+      <c r="R8" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
@@ -2512,7 +2528,9 @@
       <c r="Q9" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="15"/>
+      <c r="R9" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
@@ -2583,7 +2601,9 @@
       <c r="Q10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
@@ -2654,7 +2674,9 @@
       <c r="Q11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="15"/>
+      <c r="R11" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
@@ -2725,7 +2747,9 @@
       <c r="Q12" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="15"/>
+      <c r="R12" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -2796,7 +2820,9 @@
       <c r="Q13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="15"/>
+      <c r="R13" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
@@ -2867,7 +2893,9 @@
       <c r="Q14" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="55"/>
+      <c r="R14" s="81" t="s">
+        <v>3</v>
+      </c>
       <c r="S14" s="55"/>
       <c r="T14" s="55"/>
       <c r="U14" s="55"/>
@@ -2938,7 +2966,9 @@
       <c r="Q15" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="46"/>
+      <c r="R15" s="49" t="s">
+        <v>3</v>
+      </c>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
       <c r="U15" s="46"/>
@@ -3137,9 +3167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3150,7 +3180,9 @@
     <col min="10" max="10" width="9.1640625" style="16" customWidth="1"/>
     <col min="11" max="15" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="24" width="9.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="9.1640625" style="1" customWidth="1"/>
     <col min="25" max="26" width="8.83203125" style="1" customWidth="1"/>
     <col min="27" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -3204,8 +3236,12 @@
       <c r="P1" s="27">
         <v>45231</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="Q1" s="27">
+        <v>45233</v>
+      </c>
+      <c r="R1" s="27">
+        <v>45238</v>
+      </c>
       <c r="S1" s="3"/>
       <c r="T1" s="11"/>
       <c r="U1" s="12"/>
@@ -3272,8 +3308,12 @@
       <c r="P2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="Q2" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="S2" s="7"/>
       <c r="T2" s="13"/>
       <c r="U2" s="14"/>
@@ -3340,8 +3380,12 @@
       <c r="P3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="13"/>
       <c r="U3" s="14"/>
@@ -3408,8 +3452,12 @@
       <c r="P4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="Q4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="13"/>
       <c r="U4" s="14"/>
@@ -3476,8 +3524,12 @@
       <c r="P5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="Q5" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="13"/>
       <c r="U5" s="14"/>
@@ -3544,8 +3596,12 @@
       <c r="P6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="S6" s="7"/>
       <c r="T6" s="13"/>
       <c r="U6" s="14"/>
@@ -3612,8 +3668,12 @@
       <c r="P7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="13"/>
       <c r="U7" s="14"/>
@@ -3680,8 +3740,12 @@
       <c r="P8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="Q8" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="80" t="s">
+        <v>3</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="13"/>
       <c r="U8" s="14"/>
@@ -3748,8 +3812,12 @@
       <c r="P9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="Q9" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="T9" s="13"/>
       <c r="U9" s="14"/>
@@ -3816,8 +3884,12 @@
       <c r="P10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="Q10" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="13"/>
       <c r="U10" s="14"/>
@@ -3884,8 +3956,12 @@
       <c r="P11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="Q11" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="80" t="s">
+        <v>4</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="T11" s="13"/>
       <c r="U11" s="14"/>
@@ -3952,8 +4028,12 @@
       <c r="P12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
+      <c r="Q12" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="81" t="s">
+        <v>3</v>
+      </c>
       <c r="S12" s="71"/>
       <c r="T12" s="72"/>
       <c r="U12" s="73"/>
@@ -4020,8 +4100,12 @@
       <c r="P13" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="Q13" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
@@ -4055,7 +4139,7 @@
       <c r="O14" s="63"/>
       <c r="P14" s="63"/>
       <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
+      <c r="R14" s="63"/>
       <c r="S14" s="76"/>
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
@@ -4095,7 +4179,7 @@
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
+      <c r="R15" s="39"/>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
       <c r="U15" s="38"/>
@@ -4133,7 +4217,7 @@
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
       <c r="U16" s="38"/>
